--- a/LGBTQ-Movies/Data/movie_db_data_dictionary.xlsx
+++ b/LGBTQ-Movies/Data/movie_db_data_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/orms1149_ox_ac_uk/Documents/Documents/GitHub/LGBTQ-Movies/LGBTQ-Movies/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{B8A518D7-AAA1-4F8E-8F49-91EC7EA50C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77937880-6F09-4FB5-8CB7-C8DE53D9BF02}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{B8A518D7-AAA1-4F8E-8F49-91EC7EA50C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A52137C-A22F-4063-82CF-843A4BF0BE51}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BDE80DCB-CC04-4CB3-B7C9-1579E5891829}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{BDE80DCB-CC04-4CB3-B7C9-1579E5891829}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,72 +44,42 @@
     <t>integer</t>
   </si>
   <si>
-    <t>unique ID</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>title of record in English(?)</t>
-  </si>
-  <si>
     <t>original_title</t>
   </si>
   <si>
-    <t>non-English characters</t>
-  </si>
-  <si>
     <t>original_language</t>
   </si>
   <si>
-    <t>language of the record</t>
-  </si>
-  <si>
     <t>overview</t>
   </si>
   <si>
-    <t>description of the record</t>
-  </si>
-  <si>
     <t>release_date</t>
   </si>
   <si>
-    <t>release date of movie</t>
-  </si>
-  <si>
     <t>popularity</t>
   </si>
   <si>
     <t>number</t>
   </si>
   <si>
-    <t>popularity rating</t>
-  </si>
-  <si>
     <t>vote_average</t>
   </si>
   <si>
-    <t>average rating</t>
-  </si>
-  <si>
     <t>vote_count</t>
   </si>
   <si>
-    <t>the number of votes</t>
-  </si>
-  <si>
     <t>adult</t>
   </si>
   <si>
     <t>boolean</t>
   </si>
   <si>
-    <t>Boolean to indicate an adult movie.</t>
-  </si>
-  <si>
     <t>video</t>
   </si>
   <si>
@@ -119,9 +89,6 @@
     <t>genre_ids</t>
   </si>
   <si>
-    <t>an array of integers</t>
-  </si>
-  <si>
     <t>Level</t>
   </si>
   <si>
@@ -576,6 +543,39 @@
   </si>
   <si>
     <t>Class</t>
+  </si>
+  <si>
+    <t>A unique ID</t>
+  </si>
+  <si>
+    <t>Title of record in English(?)</t>
+  </si>
+  <si>
+    <t>Represents the non-English characters in the orginal title</t>
+  </si>
+  <si>
+    <t>Language of the record</t>
+  </si>
+  <si>
+    <t>Description of the record</t>
+  </si>
+  <si>
+    <t>Release date of movie</t>
+  </si>
+  <si>
+    <t>Popularity rating</t>
+  </si>
+  <si>
+    <t>Average rating</t>
+  </si>
+  <si>
+    <t>The number of votes</t>
+  </si>
+  <si>
+    <t>Boolean to indicate an adult movie</t>
+  </si>
+  <si>
+    <t>An array of integers representing the genre ids</t>
   </si>
 </sst>
 </file>
@@ -625,13 +625,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -970,7 +976,7 @@
   <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,19 +990,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1007,74 +1013,74 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>167</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>167</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>167</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>103</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1082,10 +1088,10 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1093,10 +1099,10 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1104,10 +1110,10 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -1115,10 +1121,10 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1126,10 +1132,10 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -1137,10 +1143,10 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -1148,10 +1154,10 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -1159,10 +1165,10 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -1170,10 +1176,10 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -1181,10 +1187,10 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -1192,10 +1198,10 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -1203,10 +1209,10 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -1214,10 +1220,10 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -1225,10 +1231,10 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -1236,10 +1242,10 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -1247,10 +1253,10 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -1258,10 +1264,10 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -1269,10 +1275,10 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -1280,10 +1286,10 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -1291,10 +1297,10 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -1302,10 +1308,10 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -1313,10 +1319,10 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -1324,10 +1330,10 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -1338,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -1346,10 +1352,10 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -1357,10 +1363,10 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -1368,10 +1374,10 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -1379,10 +1385,10 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -1390,10 +1396,10 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D35" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E35" s="1"/>
     </row>
@@ -1401,10 +1407,10 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -1412,10 +1418,10 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D37" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -1423,10 +1429,10 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D38" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -1434,10 +1440,10 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D39" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E39" s="1"/>
     </row>
@@ -1445,10 +1451,10 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E40" s="1"/>
     </row>
@@ -1456,10 +1462,10 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D41" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E41" s="1"/>
     </row>
@@ -1467,10 +1473,10 @@
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D42" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E42" s="1"/>
     </row>
@@ -1478,10 +1484,10 @@
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D43" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E43" s="1"/>
     </row>
@@ -1489,10 +1495,10 @@
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D44" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E44" s="1"/>
     </row>
@@ -1500,10 +1506,10 @@
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D45" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E45" s="1"/>
     </row>
@@ -1511,10 +1517,10 @@
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D46" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E46" s="1"/>
     </row>
@@ -1522,10 +1528,10 @@
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D47" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E47" s="1"/>
     </row>
@@ -1533,10 +1539,10 @@
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D48" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E48" s="1"/>
     </row>
@@ -1544,10 +1550,10 @@
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D49" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E49" s="1"/>
     </row>
@@ -1555,10 +1561,10 @@
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D50" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E50" s="1"/>
     </row>
@@ -1566,10 +1572,10 @@
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D51" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E51" s="1"/>
     </row>
@@ -1577,10 +1583,10 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D52" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E52" s="1"/>
     </row>
@@ -1588,10 +1594,10 @@
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D53" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E53" s="1"/>
     </row>
@@ -1599,10 +1605,10 @@
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D54" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E54" s="1"/>
     </row>
@@ -1610,10 +1616,10 @@
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D55" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E55" s="1"/>
     </row>
@@ -1621,10 +1627,10 @@
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D56" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E56" s="1"/>
     </row>
@@ -1632,10 +1638,10 @@
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D57" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E57" s="1"/>
     </row>
@@ -1643,10 +1649,10 @@
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D58" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E58" s="1"/>
     </row>
@@ -1654,10 +1660,10 @@
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D59" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E59" s="1"/>
     </row>
@@ -1665,10 +1671,10 @@
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D60" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E60" s="1"/>
     </row>
@@ -1676,10 +1682,10 @@
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D61" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E61" s="1"/>
     </row>
@@ -1687,10 +1693,10 @@
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D62" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E62" s="1"/>
     </row>
@@ -1698,10 +1704,10 @@
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D63" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E63" s="1"/>
     </row>
@@ -1709,10 +1715,10 @@
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D64" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E64" s="1"/>
     </row>
@@ -1720,10 +1726,10 @@
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D65" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E65" s="1"/>
     </row>
@@ -1731,10 +1737,10 @@
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D66" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E66" s="1"/>
     </row>
@@ -1742,10 +1748,10 @@
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D67" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="E67" s="1"/>
     </row>
@@ -1753,147 +1759,147 @@
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D68" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>11</v>
+        <v>167</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>13</v>
+        <v>167</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>16</v>
+        <v>167</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>18</v>
+        <v>167</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>20</v>
+        <v>167</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>25</v>
+        <v>167</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C76">
         <v>28</v>
       </c>
       <c r="D76" t="s">
-        <v>32</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -1901,7 +1907,7 @@
         <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -1909,7 +1915,7 @@
         <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -1917,7 +1923,7 @@
         <v>35</v>
       </c>
       <c r="D79" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -1925,7 +1931,7 @@
         <v>80</v>
       </c>
       <c r="D80" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.3">
@@ -1933,7 +1939,7 @@
         <v>99</v>
       </c>
       <c r="D81" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.3">
@@ -1941,7 +1947,7 @@
         <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.3">
@@ -1949,7 +1955,7 @@
         <v>10751</v>
       </c>
       <c r="D83" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.3">
@@ -1957,7 +1963,7 @@
         <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.3">
@@ -1965,7 +1971,7 @@
         <v>36</v>
       </c>
       <c r="D85" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.3">
@@ -1973,7 +1979,7 @@
         <v>27</v>
       </c>
       <c r="D86" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.3">
@@ -1981,7 +1987,7 @@
         <v>10402</v>
       </c>
       <c r="D87" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.3">
@@ -1989,7 +1995,7 @@
         <v>9648</v>
       </c>
       <c r="D88" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.3">
@@ -1997,7 +2003,7 @@
         <v>10749</v>
       </c>
       <c r="D89" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.3">
@@ -2005,7 +2011,7 @@
         <v>878</v>
       </c>
       <c r="D90" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="3:4" x14ac:dyDescent="0.3">
@@ -2013,7 +2019,7 @@
         <v>10770</v>
       </c>
       <c r="D91" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.3">
@@ -2021,7 +2027,7 @@
         <v>53</v>
       </c>
       <c r="D92" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="3:4" x14ac:dyDescent="0.3">
@@ -2029,7 +2035,7 @@
         <v>10752</v>
       </c>
       <c r="D93" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.3">
@@ -2037,7 +2043,7 @@
         <v>37</v>
       </c>
       <c r="D94" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
